--- a/FPL 2023-24 - GW11- Helicopter View.xlsx
+++ b/FPL 2023-24 - GW11- Helicopter View.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\FPL\2023-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3E9FE0-5E89-4282-8129-4DDE9F4B0154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67C4257-939C-41BE-8DFB-C232A32BDE07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14610" xr2:uid="{8E6FAD48-B4EF-45C0-B8EE-FCDD19E131BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="205">
   <si>
     <t>GW1</t>
   </si>
@@ -539,6 +539,108 @@
   </si>
   <si>
     <t>FA FINAL 5xT6</t>
+  </si>
+  <si>
+    <t>GW2</t>
+  </si>
+  <si>
+    <t>GW3</t>
+  </si>
+  <si>
+    <t>GW4</t>
+  </si>
+  <si>
+    <t>GW5</t>
+  </si>
+  <si>
+    <t>GW6</t>
+  </si>
+  <si>
+    <t>GW7</t>
+  </si>
+  <si>
+    <t>GW8</t>
+  </si>
+  <si>
+    <t>GW9</t>
+  </si>
+  <si>
+    <t>GW10</t>
+  </si>
+  <si>
+    <t>GW11</t>
+  </si>
+  <si>
+    <t>GW12</t>
+  </si>
+  <si>
+    <t>GW13</t>
+  </si>
+  <si>
+    <t>GW14</t>
+  </si>
+  <si>
+    <t>GW15</t>
+  </si>
+  <si>
+    <t>GW16</t>
+  </si>
+  <si>
+    <t>GW17</t>
+  </si>
+  <si>
+    <t>GW18</t>
+  </si>
+  <si>
+    <t>GW19</t>
+  </si>
+  <si>
+    <t>GW20</t>
+  </si>
+  <si>
+    <t>GW22</t>
+  </si>
+  <si>
+    <t>GW23</t>
+  </si>
+  <si>
+    <t>GW24</t>
+  </si>
+  <si>
+    <t>GW25</t>
+  </si>
+  <si>
+    <t>GW26</t>
+  </si>
+  <si>
+    <t>GW27</t>
+  </si>
+  <si>
+    <t>GW28</t>
+  </si>
+  <si>
+    <t>GW30</t>
+  </si>
+  <si>
+    <t>GW31</t>
+  </si>
+  <si>
+    <t>GW32</t>
+  </si>
+  <si>
+    <t>GW34</t>
+  </si>
+  <si>
+    <t>GW35</t>
+  </si>
+  <si>
+    <t>GW36</t>
+  </si>
+  <si>
+    <t>GW37</t>
+  </si>
+  <si>
+    <t>GW38</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1407,12 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,9 +1425,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1338,8 +1442,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9179,13 +9281,13 @@
   <dimension ref="A2:BT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB28" sqref="BB28"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="4" customWidth="1"/>
     <col min="2" max="2" width="3.875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="64" width="4.625" style="4" customWidth="1"/>
     <col min="65" max="65" width="4.75" style="4" customWidth="1"/>
@@ -9561,98 +9663,79 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="str">
-        <f>"GW"&amp;RIGHT(C4,LEN(C4)-2)+1</f>
-        <v>GW2</v>
-      </c>
-      <c r="E4" s="13" t="str">
-        <f t="shared" ref="E4:M4" si="0">"GW"&amp;RIGHT(D4,LEN(D4)-2)+1</f>
-        <v>GW3</v>
-      </c>
-      <c r="F4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>GW4</v>
-      </c>
-      <c r="G4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>GW5</v>
-      </c>
-      <c r="H4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>GW6</v>
-      </c>
-      <c r="I4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>GW7</v>
-      </c>
-      <c r="J4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>GW8</v>
-      </c>
-      <c r="K4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>GW9</v>
-      </c>
-      <c r="L4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>GW10</v>
-      </c>
-      <c r="M4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>GW11</v>
+      <c r="D4" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(M4,LEN(M4)-2)+1</f>
-        <v>GW12</v>
+      <c r="O4" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14" t="s">
         <v>83</v>
       </c>
       <c r="R4" s="14"/>
-      <c r="S4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(O4,LEN(O4)-2)+1</f>
-        <v>GW13</v>
+      <c r="S4" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="U4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(S4,LEN(S4)-2)+1</f>
-        <v>GW14</v>
-      </c>
-      <c r="V4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(U4,LEN(U4)-2)+1</f>
-        <v>GW15</v>
-      </c>
-      <c r="W4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(V4,LEN(V4)-2)+1</f>
-        <v>GW16</v>
+      <c r="U4" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Y4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(W4,LEN(W4)-2)+1</f>
-        <v>GW17</v>
+      <c r="Y4" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="Z4" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="AA4" s="26" t="str">
-        <f>"GW"&amp;RIGHT(Y4,LEN(Y4)-2)+1</f>
-        <v>GW18</v>
-      </c>
-      <c r="AB4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(AA4,LEN(AA4)-2)+1</f>
-        <v>GW19</v>
-      </c>
-      <c r="AC4" s="3" t="str">
-        <f>"GW"&amp;RIGHT(AB4,LEN(AB4)-2)+1</f>
-        <v>GW20</v>
+      <c r="AA4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB4" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="22" t="s">
@@ -9661,9 +9744,8 @@
       <c r="AF4" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="AG4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(AC4,LEN(AC4)-2)+1</f>
-        <v>GW21</v>
+      <c r="AG4" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="AH4" s="22" t="s">
         <v>93</v>
@@ -9675,110 +9757,93 @@
       <c r="AK4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AL4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(AG4,LEN(AG4)-2)+1</f>
-        <v>GW22</v>
-      </c>
-      <c r="AM4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(AL4,LEN(AL4)-2)+1</f>
-        <v>GW23</v>
+      <c r="AL4" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM4" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="AN4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AO4" s="32" t="str">
-        <f>"GW"&amp;RIGHT(AM4,LEN(AM4)-2)+1</f>
-        <v>GW24</v>
+      <c r="AO4" s="32" t="s">
+        <v>192</v>
       </c>
       <c r="AP4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AQ4" s="32" t="str">
-        <f>"GW"&amp;RIGHT(AO4,LEN(AO4)-2)+1</f>
-        <v>GW25</v>
+      <c r="AQ4" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="AR4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AS4" s="26" t="str">
-        <f>"GW"&amp;RIGHT(AQ4,LEN(AQ4)-2)+1</f>
-        <v>GW26</v>
+      <c r="AS4" s="26" t="s">
+        <v>194</v>
       </c>
       <c r="AT4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AU4" s="32" t="str">
-        <f>"GW"&amp;RIGHT(AS4,LEN(AS4)-2)+1</f>
-        <v>GW27</v>
+      <c r="AU4" s="32" t="s">
+        <v>195</v>
       </c>
       <c r="AV4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AW4" s="32" t="str">
-        <f>"GW"&amp;RIGHT(AU4,LEN(AU4)-2)+1</f>
-        <v>GW28</v>
+      <c r="AW4" s="32" t="s">
+        <v>196</v>
       </c>
       <c r="AX4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AY4" s="26" t="str">
-        <f>"GW"&amp;RIGHT(AW4,LEN(AW4)-2)+1</f>
-        <v>GW29</v>
+      <c r="AY4" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="AZ4" s="14"/>
       <c r="BA4" s="14" t="s">
         <v>83</v>
       </c>
       <c r="BB4" s="14"/>
-      <c r="BC4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(AY4,LEN(AY4)-2)+1</f>
-        <v>GW30</v>
-      </c>
-      <c r="BD4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(BC4,LEN(BC4)-2)+1</f>
-        <v>GW31</v>
-      </c>
-      <c r="BE4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(BD4,LEN(BD4)-2)+1</f>
-        <v>GW32</v>
+      <c r="BC4" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE4" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="BF4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="BG4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(BE4,LEN(BE4)-2)+1</f>
-        <v>GW33</v>
+      <c r="BG4" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="BH4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="BI4" s="26" t="str">
-        <f>"GW"&amp;RIGHT(BG4,LEN(BG4)-2)+1</f>
-        <v>GW34</v>
+      <c r="BI4" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="BJ4" s="3"/>
-      <c r="BK4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(BI4,LEN(BI4)-2)+1</f>
-        <v>GW35</v>
+      <c r="BK4" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="BL4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="BM4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(BK4,LEN(BK4)-2)+1</f>
-        <v>GW36</v>
+      <c r="BM4" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="BN4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="BO4" s="3" t="str">
-        <f>"GW"&amp;RIGHT(BM4,LEN(BM4)-2)+1</f>
-        <v>GW37</v>
+      <c r="BO4" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="BP4" s="3"/>
-      <c r="BQ4" s="13" t="str">
-        <f>"GW"&amp;RIGHT(BO4,LEN(BO4)-2)+1</f>
-        <v>GW38</v>
+      <c r="BQ4" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="BR4" s="11" t="s">
         <v>66</v>
@@ -13134,21 +13199,21 @@
       </c>
     </row>
     <row r="26" spans="1:72" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Z26" s="80" t="s">
+      <c r="Z26" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="AA26" s="81"/>
-      <c r="AG26" s="82" t="s">
+      <c r="AA26" s="84"/>
+      <c r="AG26" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="AH26" s="82"/>
-      <c r="AI26" s="82"/>
-      <c r="AJ26" s="82"/>
-      <c r="AK26" s="82"/>
-      <c r="AL26" s="82"/>
-      <c r="AM26" s="82"/>
-      <c r="AN26" s="82"/>
-      <c r="AO26" s="82"/>
+      <c r="AH26" s="85"/>
+      <c r="AI26" s="85"/>
+      <c r="AJ26" s="85"/>
+      <c r="AK26" s="85"/>
+      <c r="AL26" s="85"/>
+      <c r="AM26" s="85"/>
+      <c r="AN26" s="85"/>
+      <c r="AO26" s="85"/>
       <c r="AP26" s="11" t="s">
         <v>137</v>
       </c>
@@ -13163,123 +13228,123 @@
       <c r="B27" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AG27" s="83" t="s">
+      <c r="AG27" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="AH27" s="83"/>
-      <c r="AI27" s="83"/>
-      <c r="AJ27" s="83"/>
-      <c r="AK27" s="83"/>
-      <c r="AL27" s="83"/>
-      <c r="AM27" s="83"/>
-      <c r="AN27" s="83"/>
-      <c r="AO27" s="83"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="86"/>
+      <c r="AJ27" s="86"/>
+      <c r="AK27" s="86"/>
+      <c r="AL27" s="86"/>
+      <c r="AM27" s="86"/>
+      <c r="AN27" s="86"/>
+      <c r="AO27" s="86"/>
     </row>
     <row r="28" spans="1:72" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AG28" s="84" t="s">
+      <c r="AG28" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="AH28" s="84"/>
-      <c r="AI28" s="84"/>
-      <c r="AJ28" s="84"/>
-      <c r="AK28" s="84"/>
-      <c r="AL28" s="84"/>
-      <c r="AM28" s="84"/>
-      <c r="AN28" s="84"/>
-      <c r="AO28" s="84"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="82"/>
+      <c r="AM28" s="82"/>
+      <c r="AN28" s="82"/>
+      <c r="AO28" s="82"/>
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="AG29" s="79" t="s">
+      <c r="AG29" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="79"/>
-      <c r="AM29" s="79"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="79"/>
+      <c r="AH29" s="81"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="81"/>
+      <c r="AK29" s="81"/>
+      <c r="AL29" s="81"/>
+      <c r="AM29" s="81"/>
+      <c r="AN29" s="81"/>
+      <c r="AO29" s="81"/>
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="AG30" s="79" t="s">
+      <c r="AG30" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="79"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="81"/>
+      <c r="AM30" s="81"/>
+      <c r="AN30" s="81"/>
+      <c r="AO30" s="81"/>
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="AG31" s="79" t="s">
+      <c r="AG31" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="AH31" s="79"/>
-      <c r="AI31" s="79"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="79"/>
-      <c r="AM31" s="79"/>
-      <c r="AN31" s="79"/>
-      <c r="AO31" s="79"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="81"/>
+      <c r="AJ31" s="81"/>
+      <c r="AK31" s="81"/>
+      <c r="AL31" s="81"/>
+      <c r="AM31" s="81"/>
+      <c r="AN31" s="81"/>
+      <c r="AO31" s="81"/>
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AG32" s="79" t="s">
+      <c r="AG32" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="AH32" s="79"/>
-      <c r="AI32" s="79"/>
-      <c r="AJ32" s="79"/>
-      <c r="AK32" s="79"/>
-      <c r="AL32" s="79"/>
-      <c r="AM32" s="79"/>
-      <c r="AN32" s="79"/>
-      <c r="AO32" s="79"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="81"/>
+      <c r="AO32" s="81"/>
     </row>
     <row r="33" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B33" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="AG33" s="79" t="s">
+      <c r="AG33" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="AH33" s="79"/>
-      <c r="AI33" s="79"/>
-      <c r="AJ33" s="79"/>
-      <c r="AK33" s="79"/>
-      <c r="AL33" s="79"/>
-      <c r="AM33" s="79"/>
-      <c r="AN33" s="79"/>
-      <c r="AO33" s="79"/>
+      <c r="AH33" s="81"/>
+      <c r="AI33" s="81"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="81"/>
+      <c r="AM33" s="81"/>
+      <c r="AN33" s="81"/>
+      <c r="AO33" s="81"/>
     </row>
     <row r="34" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="AG34" s="79" t="s">
+      <c r="AG34" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="AH34" s="79"/>
-      <c r="AI34" s="79"/>
-      <c r="AJ34" s="79"/>
-      <c r="AK34" s="79"/>
-      <c r="AL34" s="79"/>
-      <c r="AM34" s="79"/>
-      <c r="AN34" s="79"/>
-      <c r="AO34" s="79"/>
+      <c r="AH34" s="81"/>
+      <c r="AI34" s="81"/>
+      <c r="AJ34" s="81"/>
+      <c r="AK34" s="81"/>
+      <c r="AL34" s="81"/>
+      <c r="AM34" s="81"/>
+      <c r="AN34" s="81"/>
+      <c r="AO34" s="81"/>
       <c r="AY34" s="27" t="s">
         <v>138</v>
       </c>
@@ -13294,17 +13359,17 @@
       <c r="B35" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="AG35" s="79" t="s">
+      <c r="AG35" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="AH35" s="79"/>
-      <c r="AI35" s="79"/>
-      <c r="AJ35" s="79"/>
-      <c r="AK35" s="79"/>
-      <c r="AL35" s="79"/>
-      <c r="AM35" s="79"/>
-      <c r="AN35" s="79"/>
-      <c r="AO35" s="79"/>
+      <c r="AH35" s="81"/>
+      <c r="AI35" s="81"/>
+      <c r="AJ35" s="81"/>
+      <c r="AK35" s="81"/>
+      <c r="AL35" s="81"/>
+      <c r="AM35" s="81"/>
+      <c r="AN35" s="81"/>
+      <c r="AO35" s="81"/>
       <c r="BI35" s="28" t="s">
         <v>139</v>
       </c>
@@ -13319,33 +13384,33 @@
       <c r="AC36" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="AG36" s="79" t="s">
+      <c r="AG36" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="79"/>
-      <c r="AJ36" s="79"/>
-      <c r="AK36" s="79"/>
-      <c r="AL36" s="79"/>
-      <c r="AM36" s="79"/>
-      <c r="AN36" s="79"/>
-      <c r="AO36" s="79"/>
+      <c r="AH36" s="81"/>
+      <c r="AI36" s="81"/>
+      <c r="AJ36" s="81"/>
+      <c r="AK36" s="81"/>
+      <c r="AL36" s="81"/>
+      <c r="AM36" s="81"/>
+      <c r="AN36" s="81"/>
+      <c r="AO36" s="81"/>
     </row>
     <row r="37" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="AG37" s="84" t="s">
+      <c r="AG37" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="AH37" s="84"/>
-      <c r="AI37" s="84"/>
-      <c r="AJ37" s="84"/>
-      <c r="AK37" s="84"/>
-      <c r="AL37" s="84"/>
-      <c r="AM37" s="84"/>
-      <c r="AN37" s="84"/>
-      <c r="AO37" s="84"/>
+      <c r="AH37" s="82"/>
+      <c r="AI37" s="82"/>
+      <c r="AJ37" s="82"/>
+      <c r="AK37" s="82"/>
+      <c r="AL37" s="82"/>
+      <c r="AM37" s="82"/>
+      <c r="AN37" s="82"/>
+      <c r="AO37" s="82"/>
       <c r="BD37" s="45" t="s">
         <v>143</v>
       </c>
@@ -13366,46 +13431,46 @@
       <c r="B38" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="AG38" s="84" t="s">
+      <c r="AG38" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="AH38" s="84"/>
-      <c r="AI38" s="84"/>
-      <c r="AJ38" s="84"/>
-      <c r="AK38" s="84"/>
-      <c r="AL38" s="84"/>
-      <c r="AM38" s="84"/>
-      <c r="AN38" s="84"/>
-      <c r="AO38" s="84"/>
+      <c r="AH38" s="82"/>
+      <c r="AI38" s="82"/>
+      <c r="AJ38" s="82"/>
+      <c r="AK38" s="82"/>
+      <c r="AL38" s="82"/>
+      <c r="AM38" s="82"/>
+      <c r="AN38" s="82"/>
+      <c r="AO38" s="82"/>
     </row>
     <row r="39" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B39" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="AG39" s="79" t="s">
+      <c r="AG39" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="AH39" s="79"/>
-      <c r="AI39" s="79"/>
-      <c r="AJ39" s="79"/>
-      <c r="AK39" s="79"/>
-      <c r="AL39" s="79"/>
-      <c r="AM39" s="79"/>
-      <c r="AN39" s="79"/>
-      <c r="AO39" s="79"/>
+      <c r="AH39" s="81"/>
+      <c r="AI39" s="81"/>
+      <c r="AJ39" s="81"/>
+      <c r="AK39" s="81"/>
+      <c r="AL39" s="81"/>
+      <c r="AM39" s="81"/>
+      <c r="AN39" s="81"/>
+      <c r="AO39" s="81"/>
     </row>
     <row r="40" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="AG40" s="79" t="s">
+      <c r="AG40" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="AH40" s="79"/>
-      <c r="AI40" s="79"/>
-      <c r="AJ40" s="79"/>
-      <c r="AK40" s="79"/>
-      <c r="AL40" s="79"/>
-      <c r="AM40" s="79"/>
-      <c r="AN40" s="79"/>
-      <c r="AO40" s="79"/>
+      <c r="AH40" s="81"/>
+      <c r="AI40" s="81"/>
+      <c r="AJ40" s="81"/>
+      <c r="AK40" s="81"/>
+      <c r="AL40" s="81"/>
+      <c r="AM40" s="81"/>
+      <c r="AN40" s="81"/>
+      <c r="AO40" s="81"/>
       <c r="AY40" s="13" t="s">
         <v>147</v>
       </c>
@@ -13414,17 +13479,17 @@
       </c>
     </row>
     <row r="41" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="AG41" s="79" t="s">
+      <c r="AG41" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="AH41" s="79"/>
-      <c r="AI41" s="79"/>
-      <c r="AJ41" s="79"/>
-      <c r="AK41" s="79"/>
-      <c r="AL41" s="79"/>
-      <c r="AM41" s="79"/>
-      <c r="AN41" s="79"/>
-      <c r="AO41" s="79"/>
+      <c r="AH41" s="81"/>
+      <c r="AI41" s="81"/>
+      <c r="AJ41" s="81"/>
+      <c r="AK41" s="81"/>
+      <c r="AL41" s="81"/>
+      <c r="AM41" s="81"/>
+      <c r="AN41" s="81"/>
+      <c r="AO41" s="81"/>
       <c r="AY41" s="5" t="s">
         <v>145</v>
       </c>
@@ -13433,17 +13498,17 @@
       </c>
     </row>
     <row r="42" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="AG42" s="79" t="s">
+      <c r="AG42" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="AH42" s="79"/>
-      <c r="AI42" s="79"/>
-      <c r="AJ42" s="79"/>
-      <c r="AK42" s="79"/>
-      <c r="AL42" s="79"/>
-      <c r="AM42" s="79"/>
-      <c r="AN42" s="79"/>
-      <c r="AO42" s="79"/>
+      <c r="AH42" s="81"/>
+      <c r="AI42" s="81"/>
+      <c r="AJ42" s="81"/>
+      <c r="AK42" s="81"/>
+      <c r="AL42" s="81"/>
+      <c r="AM42" s="81"/>
+      <c r="AN42" s="81"/>
+      <c r="AO42" s="81"/>
       <c r="AY42" s="6" t="s">
         <v>19</v>
       </c>
@@ -13452,185 +13517,200 @@
       </c>
     </row>
     <row r="43" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="AG43" s="79" t="s">
+      <c r="AG43" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="AH43" s="79"/>
-      <c r="AI43" s="79"/>
-      <c r="AJ43" s="79"/>
-      <c r="AK43" s="79"/>
-      <c r="AL43" s="79"/>
-      <c r="AM43" s="79"/>
-      <c r="AN43" s="79"/>
-      <c r="AO43" s="79"/>
+      <c r="AH43" s="81"/>
+      <c r="AI43" s="81"/>
+      <c r="AJ43" s="81"/>
+      <c r="AK43" s="81"/>
+      <c r="AL43" s="81"/>
+      <c r="AM43" s="81"/>
+      <c r="AN43" s="81"/>
+      <c r="AO43" s="81"/>
     </row>
     <row r="44" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="AG44" s="79" t="s">
+      <c r="AG44" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="AH44" s="79"/>
-      <c r="AI44" s="79"/>
-      <c r="AJ44" s="79"/>
-      <c r="AK44" s="79"/>
-      <c r="AL44" s="79"/>
-      <c r="AM44" s="79"/>
-      <c r="AN44" s="79"/>
-      <c r="AO44" s="79"/>
+      <c r="AH44" s="81"/>
+      <c r="AI44" s="81"/>
+      <c r="AJ44" s="81"/>
+      <c r="AK44" s="81"/>
+      <c r="AL44" s="81"/>
+      <c r="AM44" s="81"/>
+      <c r="AN44" s="81"/>
+      <c r="AO44" s="81"/>
     </row>
     <row r="45" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="AG45" s="79" t="s">
+      <c r="AG45" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="AH45" s="79"/>
-      <c r="AI45" s="79"/>
-      <c r="AJ45" s="79"/>
-      <c r="AK45" s="79"/>
-      <c r="AL45" s="79"/>
-      <c r="AM45" s="79"/>
-      <c r="AN45" s="79"/>
-      <c r="AO45" s="79"/>
+      <c r="AH45" s="81"/>
+      <c r="AI45" s="81"/>
+      <c r="AJ45" s="81"/>
+      <c r="AK45" s="81"/>
+      <c r="AL45" s="81"/>
+      <c r="AM45" s="81"/>
+      <c r="AN45" s="81"/>
+      <c r="AO45" s="81"/>
       <c r="AY45" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="46" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="AG46" s="79" t="s">
+      <c r="AG46" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="AH46" s="79"/>
-      <c r="AI46" s="79"/>
-      <c r="AJ46" s="79"/>
-      <c r="AK46" s="79"/>
-      <c r="AL46" s="79"/>
-      <c r="AM46" s="79"/>
-      <c r="AN46" s="79"/>
-      <c r="AO46" s="79"/>
+      <c r="AH46" s="81"/>
+      <c r="AI46" s="81"/>
+      <c r="AJ46" s="81"/>
+      <c r="AK46" s="81"/>
+      <c r="AL46" s="81"/>
+      <c r="AM46" s="81"/>
+      <c r="AN46" s="81"/>
+      <c r="AO46" s="81"/>
       <c r="AY46" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="47" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="AG47" s="79" t="s">
+      <c r="AG47" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="AH47" s="79"/>
-      <c r="AI47" s="79"/>
-      <c r="AJ47" s="79"/>
-      <c r="AK47" s="79"/>
-      <c r="AL47" s="79"/>
-      <c r="AM47" s="79"/>
-      <c r="AN47" s="79"/>
-      <c r="AO47" s="79"/>
+      <c r="AH47" s="81"/>
+      <c r="AI47" s="81"/>
+      <c r="AJ47" s="81"/>
+      <c r="AK47" s="81"/>
+      <c r="AL47" s="81"/>
+      <c r="AM47" s="81"/>
+      <c r="AN47" s="81"/>
+      <c r="AO47" s="81"/>
       <c r="AY47" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="AG48" s="79" t="s">
+      <c r="AG48" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="AH48" s="79"/>
-      <c r="AI48" s="79"/>
-      <c r="AJ48" s="79"/>
-      <c r="AK48" s="79"/>
-      <c r="AL48" s="79"/>
-      <c r="AM48" s="79"/>
-      <c r="AN48" s="79"/>
-      <c r="AO48" s="79"/>
+      <c r="AH48" s="81"/>
+      <c r="AI48" s="81"/>
+      <c r="AJ48" s="81"/>
+      <c r="AK48" s="81"/>
+      <c r="AL48" s="81"/>
+      <c r="AM48" s="81"/>
+      <c r="AN48" s="81"/>
+      <c r="AO48" s="81"/>
     </row>
     <row r="49" spans="33:41" x14ac:dyDescent="0.25">
-      <c r="AG49" s="79" t="s">
+      <c r="AG49" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="AH49" s="79"/>
-      <c r="AI49" s="79"/>
-      <c r="AJ49" s="79"/>
-      <c r="AK49" s="79"/>
-      <c r="AL49" s="79"/>
-      <c r="AM49" s="79"/>
-      <c r="AN49" s="79"/>
-      <c r="AO49" s="79"/>
+      <c r="AH49" s="81"/>
+      <c r="AI49" s="81"/>
+      <c r="AJ49" s="81"/>
+      <c r="AK49" s="81"/>
+      <c r="AL49" s="81"/>
+      <c r="AM49" s="81"/>
+      <c r="AN49" s="81"/>
+      <c r="AO49" s="81"/>
     </row>
     <row r="50" spans="33:41" x14ac:dyDescent="0.25">
-      <c r="AG50" s="79" t="s">
+      <c r="AG50" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="AH50" s="79"/>
-      <c r="AI50" s="79"/>
-      <c r="AJ50" s="79"/>
-      <c r="AK50" s="79"/>
-      <c r="AL50" s="79"/>
-      <c r="AM50" s="79"/>
-      <c r="AN50" s="79"/>
-      <c r="AO50" s="79"/>
+      <c r="AH50" s="81"/>
+      <c r="AI50" s="81"/>
+      <c r="AJ50" s="81"/>
+      <c r="AK50" s="81"/>
+      <c r="AL50" s="81"/>
+      <c r="AM50" s="81"/>
+      <c r="AN50" s="81"/>
+      <c r="AO50" s="81"/>
     </row>
     <row r="51" spans="33:41" x14ac:dyDescent="0.25">
-      <c r="AG51" s="79" t="s">
+      <c r="AG51" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="AH51" s="79"/>
-      <c r="AI51" s="79"/>
-      <c r="AJ51" s="79"/>
-      <c r="AK51" s="79"/>
-      <c r="AL51" s="79"/>
-      <c r="AM51" s="79"/>
-      <c r="AN51" s="79"/>
-      <c r="AO51" s="79"/>
+      <c r="AH51" s="81"/>
+      <c r="AI51" s="81"/>
+      <c r="AJ51" s="81"/>
+      <c r="AK51" s="81"/>
+      <c r="AL51" s="81"/>
+      <c r="AM51" s="81"/>
+      <c r="AN51" s="81"/>
+      <c r="AO51" s="81"/>
     </row>
     <row r="52" spans="33:41" x14ac:dyDescent="0.25">
-      <c r="AG52" s="79" t="s">
+      <c r="AG52" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="AH52" s="79"/>
-      <c r="AI52" s="79"/>
-      <c r="AJ52" s="79"/>
-      <c r="AK52" s="79"/>
-      <c r="AL52" s="79"/>
-      <c r="AM52" s="79"/>
-      <c r="AN52" s="79"/>
-      <c r="AO52" s="79"/>
+      <c r="AH52" s="81"/>
+      <c r="AI52" s="81"/>
+      <c r="AJ52" s="81"/>
+      <c r="AK52" s="81"/>
+      <c r="AL52" s="81"/>
+      <c r="AM52" s="81"/>
+      <c r="AN52" s="81"/>
+      <c r="AO52" s="81"/>
     </row>
     <row r="53" spans="33:41" x14ac:dyDescent="0.25">
-      <c r="AG53" s="79" t="s">
+      <c r="AG53" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="AH53" s="79"/>
-      <c r="AI53" s="79"/>
-      <c r="AJ53" s="79"/>
-      <c r="AK53" s="79"/>
-      <c r="AL53" s="79"/>
-      <c r="AM53" s="79"/>
-      <c r="AN53" s="79"/>
-      <c r="AO53" s="79"/>
+      <c r="AH53" s="81"/>
+      <c r="AI53" s="81"/>
+      <c r="AJ53" s="81"/>
+      <c r="AK53" s="81"/>
+      <c r="AL53" s="81"/>
+      <c r="AM53" s="81"/>
+      <c r="AN53" s="81"/>
+      <c r="AO53" s="81"/>
     </row>
     <row r="54" spans="33:41" x14ac:dyDescent="0.25">
-      <c r="AG54" s="79" t="s">
+      <c r="AG54" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="AH54" s="79"/>
-      <c r="AI54" s="79"/>
-      <c r="AJ54" s="79"/>
-      <c r="AK54" s="79"/>
-      <c r="AL54" s="79"/>
-      <c r="AM54" s="79"/>
-      <c r="AN54" s="79"/>
-      <c r="AO54" s="79"/>
+      <c r="AH54" s="81"/>
+      <c r="AI54" s="81"/>
+      <c r="AJ54" s="81"/>
+      <c r="AK54" s="81"/>
+      <c r="AL54" s="81"/>
+      <c r="AM54" s="81"/>
+      <c r="AN54" s="81"/>
+      <c r="AO54" s="81"/>
     </row>
     <row r="55" spans="33:41" x14ac:dyDescent="0.25">
-      <c r="AG55" s="79" t="s">
+      <c r="AG55" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="AH55" s="79"/>
-      <c r="AI55" s="79"/>
-      <c r="AJ55" s="79"/>
-      <c r="AK55" s="79"/>
-      <c r="AL55" s="79"/>
-      <c r="AM55" s="79"/>
-      <c r="AN55" s="79"/>
-      <c r="AO55" s="79"/>
+      <c r="AH55" s="81"/>
+      <c r="AI55" s="81"/>
+      <c r="AJ55" s="81"/>
+      <c r="AK55" s="81"/>
+      <c r="AL55" s="81"/>
+      <c r="AM55" s="81"/>
+      <c r="AN55" s="81"/>
+      <c r="AO55" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AG30:AO30"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AG26:AO26"/>
+    <mergeCell ref="AG27:AO27"/>
+    <mergeCell ref="AG28:AO28"/>
+    <mergeCell ref="AG29:AO29"/>
+    <mergeCell ref="AG39:AO39"/>
+    <mergeCell ref="AG40:AO40"/>
+    <mergeCell ref="AG41:AO41"/>
+    <mergeCell ref="AG42:AO42"/>
+    <mergeCell ref="AG31:AO31"/>
+    <mergeCell ref="AG33:AO33"/>
+    <mergeCell ref="AG34:AO34"/>
+    <mergeCell ref="AG35:AO35"/>
+    <mergeCell ref="AG36:AO36"/>
     <mergeCell ref="AG54:AO54"/>
     <mergeCell ref="AG55:AO55"/>
     <mergeCell ref="AG32:AO32"/>
@@ -13647,21 +13727,6 @@
     <mergeCell ref="AG47:AO47"/>
     <mergeCell ref="AG37:AO37"/>
     <mergeCell ref="AG38:AO38"/>
-    <mergeCell ref="AG39:AO39"/>
-    <mergeCell ref="AG40:AO40"/>
-    <mergeCell ref="AG41:AO41"/>
-    <mergeCell ref="AG42:AO42"/>
-    <mergeCell ref="AG31:AO31"/>
-    <mergeCell ref="AG33:AO33"/>
-    <mergeCell ref="AG34:AO34"/>
-    <mergeCell ref="AG35:AO35"/>
-    <mergeCell ref="AG36:AO36"/>
-    <mergeCell ref="AG30:AO30"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AG26:AO26"/>
-    <mergeCell ref="AG27:AO27"/>
-    <mergeCell ref="AG28:AO28"/>
-    <mergeCell ref="AG29:AO29"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:BS3">
     <cfRule type="containsText" dxfId="1073" priority="1286" operator="containsText" text="EU">
@@ -18094,11 +18159,11 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
@@ -18135,11 +18200,11 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="90"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
@@ -18178,11 +18243,11 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
@@ -18221,11 +18286,11 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
     </row>
     <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -18268,11 +18333,11 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="90"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="80"/>
+      <c r="Z31" s="79"/>
     </row>
     <row r="32" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -18313,11 +18378,11 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
@@ -18354,11 +18419,11 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="90"/>
-      <c r="Z33" s="90"/>
+      <c r="V33" s="79"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
@@ -18397,11 +18462,11 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="V34" s="90"/>
-      <c r="W34" s="90"/>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="90"/>
-      <c r="Z34" s="90"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
@@ -18440,11 +18505,11 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="90"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
@@ -18706,56 +18771,56 @@
       <c r="J43" s="78"/>
     </row>
     <row r="44" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
     </row>
     <row r="45" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="90"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
     </row>
     <row r="49" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="91"/>
+      <c r="M49" s="91"/>
+      <c r="N49" s="91"/>
     </row>
     <row r="50" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="8">
